--- a/final_data_pipeline/output/311314longform_elec_options.xlsx
+++ b/final_data_pipeline/output/311314longform_elec_options.xlsx
@@ -567,7 +567,7 @@
         <v>32</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="L2">
         <v>8000</v>
@@ -582,10 +582,10 @@
         <v>1104242.34436924</v>
       </c>
       <c r="R2">
-        <v>1.550576923076923</v>
+        <v>1.587252942212933</v>
       </c>
       <c r="S2">
-        <v>1.658958333333333</v>
+        <v>1.701551834435819</v>
       </c>
       <c r="T2">
         <v>138.030293046155</v>
@@ -620,7 +620,7 @@
         <v>33</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>13.00385802469133</v>
       </c>
       <c r="L3">
         <v>8000</v>
@@ -667,7 +667,7 @@
         <v>33</v>
       </c>
       <c r="K4">
-        <v>10</v>
+        <v>18.89814814814816</v>
       </c>
       <c r="L4">
         <v>8000</v>
@@ -714,7 +714,7 @@
         <v>32</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L5">
         <v>8000</v>
@@ -729,10 +729,10 @@
         <v>1468263.736722346</v>
       </c>
       <c r="R5">
-        <v>1.550576923076923</v>
+        <v>1.421349525022035</v>
       </c>
       <c r="S5">
-        <v>1.658958333333333</v>
+        <v>1.510209672321146</v>
       </c>
       <c r="T5">
         <v>183.5329670902933</v>
@@ -767,7 +767,7 @@
         <v>33</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>-1.819444444444444</v>
       </c>
       <c r="L6">
         <v>8000</v>
